--- a/helper/Business_Model.xlsx
+++ b/helper/Business_Model.xlsx
@@ -82,7 +82,7 @@
     <t>FOH-Fin-Leasing-Return-Car,FOH-Fin-Leasing-Create-Leads,FOH-Fin-Leasing-Test-Drive,FOH-Fin-Leasing-Place-Order,FOH-Fin-Leasing-Get-Delivery,FOH-Fin-Leasing-Use-Car,Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
   </si>
   <si>
-    <t>FOH-Op-Leasing-Return-Car,FOH-Op-Leasing-Create-Leads,FOH-Op-Leasing-Test-Drive,FOH-Op-Leasing-Place-Order,FOH-Op-Leasing-Get-Delivery,FOH-Op-Leasing-Use-Car,Others,FOH-Op-Leasing-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+    <t>FOH-Op-Leasing-Return-Car,FOH-Op-Leasing-Create-Leads,FOH-Op-Leasing-Test-Drive,FOH-Op-Leasing-Place-Order,FOH-Op-Leasing-Get-Delivery,Others,FOH-Op-Leasing-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
   </si>
   <si>
     <t>FOH-Purchase-Create-Leads,FOH-Purchase-Test-Drive,FOH-Purchase-Place-Order,FOH-Purchase-Get-Delivery,Others,FOH-Purchase-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>

--- a/helper/Business_Model.xlsx
+++ b/helper/Business_Model.xlsx
@@ -49,7 +49,7 @@
     <t>PCP</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>Germany,Netherlands,Denmark,Sweden,United_Kingdom,Belgium,Luxembourg,Hungary,Switzerland,Austria</t>

--- a/helper/Business_Model.xlsx
+++ b/helper/Business_Model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Business_Model</t>
   </si>
@@ -61,34 +61,7 @@
     <t>United_Kingdom</t>
   </si>
   <si>
-    <t>Subscription-Create-Leads,Subscription-Test-Drive,Subscription-Place-Order,Subscription-Get-Delivery,Subscription-Use-Car,Subscription-Return-Car,TD_Process</t>
-  </si>
-  <si>
-    <t>Fin-Leasing-Create-Leads,Fin-Leasing-Test-Drive,Fin-Leasing-Place-Order,Fin-Leasing-Get-Delivery,Fin-Leasing-Use-Car,Fin-Leasing-Return-Car,TD_Process</t>
-  </si>
-  <si>
-    <t>Op-Leasing-Return-Car,Op-Leasing-Create-Leads,Op-Leasing-Test-Drive,Op-Leasing-Place-Order,Op-Leasing-Get-Delivery,Op-Leasing-Use-Car,TD_Process</t>
-  </si>
-  <si>
-    <t>Purchase-Create-Leads,Purchase-Test-Drive,Purchase-Place-Order,Purchase-Get-Delivery,Purchase-Use-car,TD_Process</t>
-  </si>
-  <si>
-    <t>TD_Process</t>
-  </si>
-  <si>
-    <t>FOH-Subscription-Create-Leads,FOH-Subscription-Test-Drive,FOH-Subscription-Place-Order,FOH-Subscription-Get-Delivery,FOH-Subscription-Use-Car,FOH-Subscription-Return-Car,Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
-  </si>
-  <si>
-    <t>FOH-Fin-Leasing-Return-Car,FOH-Fin-Leasing-Create-Leads,FOH-Fin-Leasing-Test-Drive,FOH-Fin-Leasing-Place-Order,FOH-Fin-Leasing-Get-Delivery,FOH-Fin-Leasing-Use-Car,Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
-  </si>
-  <si>
-    <t>FOH-Op-Leasing-Return-Car,FOH-Op-Leasing-Create-Leads,FOH-Op-Leasing-Test-Drive,FOH-Op-Leasing-Place-Order,FOH-Op-Leasing-Get-Delivery,Others,FOH-Op-Leasing-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
-  </si>
-  <si>
-    <t>FOH-Purchase-Create-Leads,FOH-Purchase-Test-Drive,FOH-Purchase-Place-Order,FOH-Purchase-Get-Delivery,Others,FOH-Purchase-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
-  </si>
-  <si>
-    <t>Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+    <t>Subscription-Create-Leads</t>
   </si>
 </sst>
 </file>
@@ -485,9 +458,6 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -502,12 +472,6 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -522,12 +486,6 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
@@ -542,12 +500,6 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -562,12 +514,6 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -581,9 +527,6 @@
       </c>
       <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Business_Model.xlsx
+++ b/helper/Business_Model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Business_Model</t>
   </si>
@@ -61,7 +61,34 @@
     <t>United_Kingdom</t>
   </si>
   <si>
-    <t>Subscription-Create-Leads</t>
+    <t>Subscription-Create-Leads,Subscription-Test-Drive,Subscription-Place-Order,Subscription-Get-Delivery,Subscription-Use-Car,Subscription-Return-Car,TD_Process</t>
+  </si>
+  <si>
+    <t>Fin-Leasing-Create-Leads,Fin-Leasing-Test-Drive,Fin-Leasing-Place-Order,Fin-Leasing-Get-Delivery,Fin-Leasing-Use-Car,Fin-Leasing-Return-Car,TD_Process</t>
+  </si>
+  <si>
+    <t>Op-Leasing-Return-Car,Op-Leasing-Create-Leads,Op-Leasing-Test-Drive,Op-Leasing-Place-Order,Op-Leasing-Get-Delivery,Op-Leasing-Use-Car,TD_Process</t>
+  </si>
+  <si>
+    <t>Purchase-Create-Leads,Purchase-Test-Drive,Purchase-Place-Order,Purchase-Get-Delivery,Purchase-Use-car,TD_Process</t>
+  </si>
+  <si>
+    <t>TD_Process</t>
+  </si>
+  <si>
+    <t>FOH-Subscription-Create-Leads,FOH-Subscription-Test-Drive,FOH-Subscription-Place-Order,FOH-Subscription-Get-Delivery,FOH-Subscription-Use-Car,FOH-Subscription-Return-Car,Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+  </si>
+  <si>
+    <t>FOH-Fin-Leasing-Return-Car,FOH-Fin-Leasing-Create-Leads,FOH-Fin-Leasing-Test-Drive,FOH-Fin-Leasing-Place-Order,FOH-Fin-Leasing-Get-Delivery,FOH-Fin-Leasing-Use-Car,Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+  </si>
+  <si>
+    <t>FOH-Op-Leasing-Return-Car,FOH-Op-Leasing-Create-Leads,FOH-Op-Leasing-Test-Drive,FOH-Op-Leasing-Place-Order,FOH-Op-Leasing-Get-Delivery,Others,FOH-Op-Leasing-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+  </si>
+  <si>
+    <t>FOH-Purchase-Create-Leads,FOH-Purchase-Test-Drive,FOH-Purchase-Place-Order,FOH-Purchase-Get-Delivery,Others,FOH-Purchase-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+  </si>
+  <si>
+    <t>Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
   </si>
 </sst>
 </file>
@@ -458,6 +485,9 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -472,6 +502,12 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -486,6 +522,12 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
@@ -500,6 +542,12 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -514,6 +562,12 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -527,6 +581,9 @@
       </c>
       <c r="D7" t="s">
         <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Business_Model.xlsx
+++ b/helper/Business_Model.xlsx
@@ -76,19 +76,19 @@
     <t>TD_Process</t>
   </si>
   <si>
-    <t>FOH-Subscription-Create-Leads,FOH-Subscription-Test-Drive,FOH-Subscription-Place-Order,FOH-Subscription-Get-Delivery,FOH-Subscription-Use-Car,FOH-Subscription-Return-Car,Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
-  </si>
-  <si>
-    <t>FOH-Fin-Leasing-Return-Car,FOH-Fin-Leasing-Create-Leads,FOH-Fin-Leasing-Test-Drive,FOH-Fin-Leasing-Place-Order,FOH-Fin-Leasing-Get-Delivery,FOH-Fin-Leasing-Use-Car,Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
-  </si>
-  <si>
-    <t>FOH-Op-Leasing-Return-Car,FOH-Op-Leasing-Create-Leads,FOH-Op-Leasing-Test-Drive,FOH-Op-Leasing-Place-Order,FOH-Op-Leasing-Get-Delivery,Others,FOH-Op-Leasing-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
-  </si>
-  <si>
-    <t>FOH-Purchase-Create-Leads,FOH-Purchase-Test-Drive,FOH-Purchase-Place-Order,FOH-Purchase-Get-Delivery,Others,FOH-Purchase-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
-  </si>
-  <si>
-    <t>Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+    <t>FOH-Subscription-Create-Leads,FOH-Subscription-Test-Drive,FOH-Subscription-Place-Order,FOH-Subscription-Get-Delivery,FOH-Subscription-Use-Car,FOH-Subscription-Return-Car,Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development_&amp;_Corporate_Communication,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+  </si>
+  <si>
+    <t>FOH-Fin-Leasing-Return-Car,FOH-Fin-Leasing-Create-Leads,FOH-Fin-Leasing-Test-Drive,FOH-Fin-Leasing-Place-Order,FOH-Fin-Leasing-Get-Delivery,FOH-Fin-Leasing-Use-Car,Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development_&amp;_Corporate_Communication,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+  </si>
+  <si>
+    <t>FOH-Op-Leasing-Return-Car,FOH-Op-Leasing-Create-Leads,FOH-Op-Leasing-Test-Drive,FOH-Op-Leasing-Place-Order,FOH-Op-Leasing-Get-Delivery,Others,FOH-Op-Leasing-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development_&amp;_Corporate_Communication,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+  </si>
+  <si>
+    <t>FOH-Purchase-Create-Leads,FOH-Purchase-Test-Drive,FOH-Purchase-Place-Order,FOH-Purchase-Get-Delivery,Others,FOH-Purchase-Use-Car,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development_&amp;_Corporate_Communication,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
+  </si>
+  <si>
+    <t>Others,BOH-Infrastructure Development (NH, NS, NSC, ASC, NIOHub ),BOH-Power_Operation,BOH-NIO_House_Operation,BOH-Sales_Operation,BOH-User_Development_&amp;_Corporate_Communication,BOH-Service_Operation,BOH-Governance (Finance, Legal, HR)</t>
   </si>
 </sst>
 </file>
